--- a/material/08_1stProject/0317.model2ex_원본.xlsx
+++ b/material/08_1stProject/0317.model2ex_원본.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\webPro\note\07_jQuery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KHW\material\08_1stProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -1341,54 +1341,93 @@
     <xf numFmtId="0" fontId="12" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1406,45 +1445,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1794,7 +1794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -1812,41 +1812,41 @@
     <row r="1" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
@@ -1891,32 +1891,32 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="20"/>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="59" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="39"/>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="63"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="22"/>
       <c r="E7" s="13">
         <v>20</v>
@@ -2016,7 +2016,7 @@
     <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="64" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="10"/>
@@ -2037,7 +2037,7 @@
     <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="56"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="10"/>
       <c r="E12" s="8"/>
       <c r="F12" s="6"/>
@@ -2075,7 +2075,7 @@
     <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="56" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="10"/>
@@ -2096,7 +2096,7 @@
     <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="59"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="10"/>
       <c r="E15" s="8"/>
       <c r="F15" s="6"/>
@@ -2134,7 +2134,7 @@
     <row r="17" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="64" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="10"/>
@@ -2155,7 +2155,7 @@
     <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="56"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="10"/>
       <c r="E18" s="6"/>
       <c r="F18" s="8"/>
@@ -2214,7 +2214,7 @@
     <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="66" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="10"/>
@@ -2235,7 +2235,7 @@
     <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="57"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="10"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -2273,7 +2273,7 @@
     <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="66" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="10"/>
@@ -2294,7 +2294,7 @@
     <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="16"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="57"/>
+      <c r="C25" s="66"/>
       <c r="D25" s="10"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -2332,7 +2332,7 @@
     <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="66" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="10"/>
@@ -2353,7 +2353,7 @@
     <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="57"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="10"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
@@ -2391,7 +2391,7 @@
     <row r="30" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="66" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="10"/>
@@ -2412,7 +2412,7 @@
     <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="57"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="10"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -2450,7 +2450,7 @@
     <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="66" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="10"/>
@@ -2471,7 +2471,7 @@
     <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="16"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="57"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="10"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2509,7 +2509,7 @@
     <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="16"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="66" t="s">
         <v>80</v>
       </c>
       <c r="D36" s="10"/>
@@ -2530,7 +2530,7 @@
     <row r="37" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="16"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="57"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="10"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -2589,7 +2589,7 @@
     <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="6"/>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="67" t="s">
         <v>30</v>
       </c>
       <c r="D40" s="10"/>
@@ -2610,7 +2610,7 @@
     <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="58"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="10"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2648,7 +2648,7 @@
     <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="67" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="10"/>
@@ -2669,7 +2669,7 @@
     <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="58"/>
+      <c r="C44" s="67"/>
       <c r="D44" s="10"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -2707,7 +2707,7 @@
     <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="67" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="10"/>
@@ -2728,7 +2728,7 @@
     <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="58"/>
+      <c r="C47" s="67"/>
       <c r="D47" s="10"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -2766,7 +2766,7 @@
     <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="16"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="58" t="s">
+      <c r="C49" s="67" t="s">
         <v>37</v>
       </c>
       <c r="D49" s="10"/>
@@ -2787,7 +2787,7 @@
     <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="16"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="58"/>
+      <c r="C50" s="67"/>
       <c r="D50" s="10"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -2846,7 +2846,7 @@
     <row r="53" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="65" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="10"/>
@@ -2867,7 +2867,7 @@
     <row r="54" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="16"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="53"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="10"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -2905,7 +2905,7 @@
     <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="16"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="65" t="s">
         <v>33</v>
       </c>
       <c r="D56" s="10"/>
@@ -2926,7 +2926,7 @@
     <row r="57" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="16"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="53"/>
+      <c r="C57" s="65"/>
       <c r="D57" s="10"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -2964,7 +2964,7 @@
     <row r="59" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="65" t="s">
         <v>34</v>
       </c>
       <c r="D59" s="10"/>
@@ -2985,7 +2985,7 @@
     <row r="60" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="16"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="53"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="10"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3023,7 +3023,7 @@
     <row r="62" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="16"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="53" t="s">
+      <c r="C62" s="65" t="s">
         <v>35</v>
       </c>
       <c r="D62" s="10"/>
@@ -3044,7 +3044,7 @@
     <row r="63" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16"/>
       <c r="B63" s="6"/>
-      <c r="C63" s="53"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="10"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -3082,7 +3082,7 @@
     <row r="65" spans="1:68" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="16"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="65" t="s">
         <v>36</v>
       </c>
       <c r="D65" s="10"/>
@@ -3103,7 +3103,7 @@
     <row r="66" spans="1:68" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="16"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="53"/>
+      <c r="C66" s="65"/>
       <c r="D66" s="10"/>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3141,7 +3141,7 @@
     <row r="68" spans="1:68" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="16"/>
       <c r="B68" s="6"/>
-      <c r="C68" s="54" t="s">
+      <c r="C68" s="69" t="s">
         <v>79</v>
       </c>
       <c r="D68" s="7"/>
@@ -3162,7 +3162,7 @@
     <row r="69" spans="1:68" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="16"/>
       <c r="B69" s="6"/>
-      <c r="C69" s="54"/>
+      <c r="C69" s="69"/>
       <c r="D69" s="7"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3181,7 +3181,7 @@
     <row r="70" spans="1:68" s="5" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="16"/>
       <c r="B70" s="6"/>
-      <c r="C70" s="86" t="s">
+      <c r="C70" s="71" t="s">
         <v>168</v>
       </c>
       <c r="D70" s="7"/>
@@ -3197,62 +3197,62 @@
       <c r="N70" s="6"/>
       <c r="O70" s="38"/>
       <c r="P70" s="16"/>
-      <c r="R70" s="84"/>
-      <c r="S70" s="84"/>
-      <c r="T70" s="84"/>
-      <c r="U70" s="84"/>
-      <c r="V70" s="84"/>
-      <c r="W70" s="84"/>
-      <c r="X70" s="84"/>
-      <c r="Y70" s="84"/>
-      <c r="Z70" s="84"/>
-      <c r="AA70" s="84"/>
-      <c r="AB70" s="84"/>
-      <c r="AC70" s="84"/>
-      <c r="AD70" s="84"/>
-      <c r="AE70" s="84"/>
-      <c r="AF70" s="84"/>
-      <c r="AG70" s="84"/>
-      <c r="AH70" s="84"/>
-      <c r="AI70" s="84"/>
-      <c r="AJ70" s="84"/>
-      <c r="AK70" s="84"/>
-      <c r="AL70" s="84"/>
-      <c r="AM70" s="84"/>
-      <c r="AN70" s="84"/>
-      <c r="AO70" s="84"/>
-      <c r="AP70" s="84"/>
-      <c r="AQ70" s="84"/>
-      <c r="AR70" s="84"/>
-      <c r="AS70" s="84"/>
-      <c r="AT70" s="84"/>
-      <c r="AU70" s="84"/>
-      <c r="AV70" s="84"/>
-      <c r="AW70" s="84"/>
-      <c r="AX70" s="84"/>
-      <c r="AY70" s="84"/>
-      <c r="AZ70" s="84"/>
-      <c r="BA70" s="84"/>
-      <c r="BB70" s="84"/>
-      <c r="BC70" s="84"/>
-      <c r="BD70" s="84"/>
-      <c r="BE70" s="84"/>
-      <c r="BF70" s="84"/>
-      <c r="BG70" s="84"/>
-      <c r="BH70" s="84"/>
-      <c r="BI70" s="84"/>
-      <c r="BJ70" s="84"/>
-      <c r="BK70" s="84"/>
-      <c r="BL70" s="84"/>
-      <c r="BM70" s="84"/>
-      <c r="BN70" s="84"/>
-      <c r="BO70" s="84"/>
-      <c r="BP70" s="84"/>
+      <c r="R70" s="54"/>
+      <c r="S70" s="54"/>
+      <c r="T70" s="54"/>
+      <c r="U70" s="54"/>
+      <c r="V70" s="54"/>
+      <c r="W70" s="54"/>
+      <c r="X70" s="54"/>
+      <c r="Y70" s="54"/>
+      <c r="Z70" s="54"/>
+      <c r="AA70" s="54"/>
+      <c r="AB70" s="54"/>
+      <c r="AC70" s="54"/>
+      <c r="AD70" s="54"/>
+      <c r="AE70" s="54"/>
+      <c r="AF70" s="54"/>
+      <c r="AG70" s="54"/>
+      <c r="AH70" s="54"/>
+      <c r="AI70" s="54"/>
+      <c r="AJ70" s="54"/>
+      <c r="AK70" s="54"/>
+      <c r="AL70" s="54"/>
+      <c r="AM70" s="54"/>
+      <c r="AN70" s="54"/>
+      <c r="AO70" s="54"/>
+      <c r="AP70" s="54"/>
+      <c r="AQ70" s="54"/>
+      <c r="AR70" s="54"/>
+      <c r="AS70" s="54"/>
+      <c r="AT70" s="54"/>
+      <c r="AU70" s="54"/>
+      <c r="AV70" s="54"/>
+      <c r="AW70" s="54"/>
+      <c r="AX70" s="54"/>
+      <c r="AY70" s="54"/>
+      <c r="AZ70" s="54"/>
+      <c r="BA70" s="54"/>
+      <c r="BB70" s="54"/>
+      <c r="BC70" s="54"/>
+      <c r="BD70" s="54"/>
+      <c r="BE70" s="54"/>
+      <c r="BF70" s="54"/>
+      <c r="BG70" s="54"/>
+      <c r="BH70" s="54"/>
+      <c r="BI70" s="54"/>
+      <c r="BJ70" s="54"/>
+      <c r="BK70" s="54"/>
+      <c r="BL70" s="54"/>
+      <c r="BM70" s="54"/>
+      <c r="BN70" s="54"/>
+      <c r="BO70" s="54"/>
+      <c r="BP70" s="54"/>
     </row>
     <row r="71" spans="1:68" s="5" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="16"/>
       <c r="B71" s="6"/>
-      <c r="C71" s="86"/>
+      <c r="C71" s="71"/>
       <c r="D71" s="7"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -3266,62 +3266,62 @@
       <c r="N71" s="6"/>
       <c r="O71" s="8"/>
       <c r="P71" s="16"/>
-      <c r="R71" s="84"/>
-      <c r="S71" s="84"/>
-      <c r="T71" s="84"/>
-      <c r="U71" s="84"/>
-      <c r="V71" s="84"/>
-      <c r="W71" s="84"/>
-      <c r="X71" s="84"/>
-      <c r="Y71" s="84"/>
-      <c r="Z71" s="84"/>
-      <c r="AA71" s="84"/>
-      <c r="AB71" s="84"/>
-      <c r="AC71" s="84"/>
-      <c r="AD71" s="84"/>
-      <c r="AE71" s="84"/>
-      <c r="AF71" s="84"/>
-      <c r="AG71" s="84"/>
-      <c r="AH71" s="84"/>
-      <c r="AI71" s="84"/>
-      <c r="AJ71" s="84"/>
-      <c r="AK71" s="84"/>
-      <c r="AL71" s="84"/>
-      <c r="AM71" s="84"/>
-      <c r="AN71" s="84"/>
-      <c r="AO71" s="84"/>
-      <c r="AP71" s="84"/>
-      <c r="AQ71" s="84"/>
-      <c r="AR71" s="84"/>
-      <c r="AS71" s="84"/>
-      <c r="AT71" s="84"/>
-      <c r="AU71" s="84"/>
-      <c r="AV71" s="84"/>
-      <c r="AW71" s="84"/>
-      <c r="AX71" s="84"/>
-      <c r="AY71" s="84"/>
-      <c r="AZ71" s="84"/>
-      <c r="BA71" s="84"/>
-      <c r="BB71" s="84"/>
-      <c r="BC71" s="84"/>
-      <c r="BD71" s="84"/>
-      <c r="BE71" s="84"/>
-      <c r="BF71" s="84"/>
-      <c r="BG71" s="84"/>
-      <c r="BH71" s="84"/>
-      <c r="BI71" s="84"/>
-      <c r="BJ71" s="84"/>
-      <c r="BK71" s="84"/>
-      <c r="BL71" s="84"/>
-      <c r="BM71" s="84"/>
-      <c r="BN71" s="84"/>
-      <c r="BO71" s="84"/>
-      <c r="BP71" s="84"/>
-    </row>
-    <row r="72" spans="1:68" s="84" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="82"/>
-      <c r="B72" s="83"/>
-      <c r="C72" s="85"/>
+      <c r="R71" s="54"/>
+      <c r="S71" s="54"/>
+      <c r="T71" s="54"/>
+      <c r="U71" s="54"/>
+      <c r="V71" s="54"/>
+      <c r="W71" s="54"/>
+      <c r="X71" s="54"/>
+      <c r="Y71" s="54"/>
+      <c r="Z71" s="54"/>
+      <c r="AA71" s="54"/>
+      <c r="AB71" s="54"/>
+      <c r="AC71" s="54"/>
+      <c r="AD71" s="54"/>
+      <c r="AE71" s="54"/>
+      <c r="AF71" s="54"/>
+      <c r="AG71" s="54"/>
+      <c r="AH71" s="54"/>
+      <c r="AI71" s="54"/>
+      <c r="AJ71" s="54"/>
+      <c r="AK71" s="54"/>
+      <c r="AL71" s="54"/>
+      <c r="AM71" s="54"/>
+      <c r="AN71" s="54"/>
+      <c r="AO71" s="54"/>
+      <c r="AP71" s="54"/>
+      <c r="AQ71" s="54"/>
+      <c r="AR71" s="54"/>
+      <c r="AS71" s="54"/>
+      <c r="AT71" s="54"/>
+      <c r="AU71" s="54"/>
+      <c r="AV71" s="54"/>
+      <c r="AW71" s="54"/>
+      <c r="AX71" s="54"/>
+      <c r="AY71" s="54"/>
+      <c r="AZ71" s="54"/>
+      <c r="BA71" s="54"/>
+      <c r="BB71" s="54"/>
+      <c r="BC71" s="54"/>
+      <c r="BD71" s="54"/>
+      <c r="BE71" s="54"/>
+      <c r="BF71" s="54"/>
+      <c r="BG71" s="54"/>
+      <c r="BH71" s="54"/>
+      <c r="BI71" s="54"/>
+      <c r="BJ71" s="54"/>
+      <c r="BK71" s="54"/>
+      <c r="BL71" s="54"/>
+      <c r="BM71" s="54"/>
+      <c r="BN71" s="54"/>
+      <c r="BO71" s="54"/>
+      <c r="BP71" s="54"/>
+    </row>
+    <row r="72" spans="1:68" s="54" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="52"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="55"/>
       <c r="D72" s="7"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -3334,7 +3334,7 @@
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
-      <c r="P72" s="82"/>
+      <c r="P72" s="52"/>
     </row>
     <row r="73" spans="1:68" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="16"/>
@@ -3380,18 +3380,18 @@
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
       <c r="H75" s="6"/>
       <c r="I75" s="38" t="s">
         <v>82</v>
       </c>
       <c r="J75" s="38"/>
       <c r="K75" s="6"/>
-      <c r="L75" s="52" t="s">
+      <c r="L75" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="M75" s="52"/>
+      <c r="M75" s="68"/>
       <c r="N75" s="40"/>
       <c r="O75" s="5"/>
       <c r="P75" s="5"/>
@@ -3417,12 +3417,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:K6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="C70:C71"/>
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C21:C22"/>
@@ -3435,14 +3437,12 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:O3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:K6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3471,7 +3471,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3482,7 +3482,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
+      <c r="A4" s="72"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -3494,7 +3494,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -3509,7 +3509,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="67"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3678,8 +3678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3717,7 +3717,7 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="81" t="s">
         <v>64</v>
       </c>
       <c r="C3" s="44" t="s">
@@ -3736,11 +3736,11 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="69"/>
-      <c r="C4" s="72" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="85" t="s">
         <v>61</v>
       </c>
       <c r="E4" s="45" t="s">
@@ -3753,9 +3753,9 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
       <c r="E5" s="45" t="s">
         <v>154</v>
       </c>
@@ -3768,9 +3768,9 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="45" t="s">
         <v>156</v>
       </c>
@@ -3783,9 +3783,9 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="45" t="s">
         <v>62</v>
       </c>
@@ -3800,13 +3800,13 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="86" t="s">
         <v>85</v>
       </c>
       <c r="E8" s="46" t="s">
@@ -3819,9 +3819,9 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="78"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="46" t="s">
         <v>84</v>
       </c>
@@ -3836,7 +3836,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="78"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="46" t="s">
         <v>86</v>
       </c>
@@ -3857,13 +3857,13 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="76" t="s">
         <v>95</v>
       </c>
       <c r="E11" s="47" t="s">
@@ -3876,9 +3876,9 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="80"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
       <c r="E12" s="47" t="s">
         <v>100</v>
       </c>
@@ -3893,7 +3893,7 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="47" t="s">
         <v>103</v>
       </c>
@@ -3912,11 +3912,11 @@
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="80"/>
-      <c r="C14" s="74" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="76" t="s">
         <v>108</v>
       </c>
       <c r="E14" s="47" t="s">
@@ -3929,9 +3929,9 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="80"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
       <c r="E15" s="47" t="s">
         <v>110</v>
       </c>
@@ -3946,7 +3946,7 @@
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="80"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="48" t="s">
         <v>118</v>
       </c>
@@ -3965,11 +3965,11 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="80"/>
-      <c r="C17" s="71" t="s">
+      <c r="B17" s="79"/>
+      <c r="C17" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="84" t="s">
         <v>70</v>
       </c>
       <c r="E17" s="49" t="s">
@@ -3982,9 +3982,9 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="80"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="49" t="s">
         <v>122</v>
       </c>
@@ -3997,7 +3997,7 @@
       <c r="H18" s="49"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="80"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="49" t="s">
         <v>67</v>
       </c>
@@ -4016,7 +4016,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="80"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="49" t="s">
         <v>68</v>
       </c>
@@ -4037,11 +4037,11 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="80"/>
-      <c r="C21" s="76" t="s">
+      <c r="B21" s="79"/>
+      <c r="C21" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="73" t="s">
         <v>77</v>
       </c>
       <c r="E21" s="49" t="s">
@@ -4056,9 +4056,9 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="80"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
       <c r="E22" s="49" t="s">
         <v>126</v>
       </c>
@@ -4073,7 +4073,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="80"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="49" t="s">
         <v>73</v>
       </c>
@@ -4094,11 +4094,11 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="80"/>
-      <c r="C24" s="76" t="s">
+      <c r="B24" s="79"/>
+      <c r="C24" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="73" t="s">
         <v>75</v>
       </c>
       <c r="E24" s="49" t="s">
@@ -4115,9 +4115,9 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="81"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
       <c r="E25" s="49" t="s">
         <v>129</v>
       </c>
@@ -4133,14 +4133,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B11:B25"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C4:C7"/>
@@ -4150,6 +4142,14 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B11:B25"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
